--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H2">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I2">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J2">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +561,22 @@
         <v>26.648191</v>
       </c>
       <c r="O2">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P2">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q2">
-        <v>4.450857844482889</v>
+        <v>1.911347421295222</v>
       </c>
       <c r="R2">
-        <v>40.057720600346</v>
+        <v>17.202126791657</v>
       </c>
       <c r="S2">
-        <v>0.555576802286041</v>
+        <v>0.1674927280964878</v>
       </c>
       <c r="T2">
-        <v>0.555576802286041</v>
+        <v>0.1674927280964878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,14 +584,14 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
         <v>2</v>
       </c>
@@ -596,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H3">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I3">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J3">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N3">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O3">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P3">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q3">
-        <v>0.3675428862360001</v>
+        <v>0.1325791959626667</v>
       </c>
       <c r="R3">
-        <v>3.307885976124</v>
+        <v>1.193212763664</v>
       </c>
       <c r="S3">
-        <v>0.04587841458272934</v>
+        <v>0.01161800883147554</v>
       </c>
       <c r="T3">
-        <v>0.04587841458272934</v>
+        <v>0.01161800883147555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,46 +661,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H4">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I4">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J4">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N4">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O4">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P4">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q4">
-        <v>0.004066840321555557</v>
+        <v>0.0009222429073333332</v>
       </c>
       <c r="R4">
-        <v>0.036601562894</v>
+        <v>0.008300186166</v>
       </c>
       <c r="S4">
-        <v>0.0005076419468346957</v>
+        <v>8.081679907895586E-05</v>
       </c>
       <c r="T4">
-        <v>0.0005076419468346956</v>
+        <v>8.081679907895587E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +708,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3313226666666667</v>
+        <v>0.5010686666666667</v>
       </c>
       <c r="H5">
-        <v>0.9939680000000001</v>
+        <v>1.503206</v>
       </c>
       <c r="I5">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="J5">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,22 +747,22 @@
         <v>26.648191</v>
       </c>
       <c r="O5">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P5">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q5">
-        <v>2.943049901320889</v>
+        <v>4.450857844482889</v>
       </c>
       <c r="R5">
-        <v>26.487449111888</v>
+        <v>40.05772060034599</v>
       </c>
       <c r="S5">
-        <v>0.3673651934695921</v>
+        <v>0.3900318248981205</v>
       </c>
       <c r="T5">
-        <v>0.3673651934695921</v>
+        <v>0.3900318248981205</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3313226666666667</v>
+        <v>0.5010686666666667</v>
       </c>
       <c r="H6">
-        <v>0.9939680000000001</v>
+        <v>1.503206</v>
       </c>
       <c r="I6">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="J6">
-        <v>0.3980371411843948</v>
+        <v>0.4172742870736815</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N6">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O6">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P6">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q6">
-        <v>0.243031139808</v>
+        <v>0.3087304525546667</v>
       </c>
       <c r="R6">
-        <v>2.187280258272</v>
+        <v>2.778574072992</v>
       </c>
       <c r="S6">
-        <v>0.0303362785845495</v>
+        <v>0.02705426819254195</v>
       </c>
       <c r="T6">
-        <v>0.0303362785845495</v>
+        <v>0.02705426819254196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.5010686666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.503206</v>
+      </c>
+      <c r="I7">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="J7">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.004286</v>
+      </c>
+      <c r="N7">
+        <v>0.012858</v>
+      </c>
+      <c r="O7">
+        <v>0.0004510078594555965</v>
+      </c>
+      <c r="P7">
+        <v>0.0004510078594555965</v>
+      </c>
+      <c r="Q7">
+        <v>0.002147580305333333</v>
+      </c>
+      <c r="R7">
+        <v>0.019328222748</v>
+      </c>
+      <c r="S7">
+        <v>0.0001881939830189611</v>
+      </c>
+      <c r="T7">
+        <v>0.0001881939830189612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.453708</v>
+      </c>
+      <c r="I8">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J8">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.3313226666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.9939680000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.3980371411843948</v>
-      </c>
-      <c r="J7">
-        <v>0.3980371411843948</v>
-      </c>
-      <c r="K7">
+      <c r="M8">
+        <v>8.882730333333333</v>
+      </c>
+      <c r="N8">
+        <v>26.648191</v>
+      </c>
+      <c r="O8">
+        <v>0.9347132976570145</v>
+      </c>
+      <c r="P8">
+        <v>0.9347132976570145</v>
+      </c>
+      <c r="Q8">
+        <v>4.304298715803111</v>
+      </c>
+      <c r="R8">
+        <v>38.738688442228</v>
+      </c>
+      <c r="S8">
+        <v>0.3771887446624062</v>
+      </c>
+      <c r="T8">
+        <v>0.3771887446624062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.453708</v>
+      </c>
+      <c r="I9">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J9">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.008116333333333335</v>
-      </c>
-      <c r="N7">
-        <v>0.024349</v>
-      </c>
-      <c r="O7">
-        <v>0.0008433110770878938</v>
-      </c>
-      <c r="P7">
-        <v>0.0008433110770878937</v>
-      </c>
-      <c r="Q7">
-        <v>0.002689125203555556</v>
-      </c>
-      <c r="R7">
-        <v>0.024202126832</v>
-      </c>
-      <c r="S7">
-        <v>0.0003356691302531981</v>
-      </c>
-      <c r="T7">
-        <v>0.000335669130253198</v>
+      <c r="M9">
+        <v>0.616144</v>
+      </c>
+      <c r="N9">
+        <v>1.848432</v>
+      </c>
+      <c r="O9">
+        <v>0.06483569448352988</v>
+      </c>
+      <c r="P9">
+        <v>0.0648356944835299</v>
+      </c>
+      <c r="Q9">
+        <v>0.2985644873173334</v>
+      </c>
+      <c r="R9">
+        <v>2.687080385856</v>
+      </c>
+      <c r="S9">
+        <v>0.02616341745951238</v>
+      </c>
+      <c r="T9">
+        <v>0.02616341745951239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.453708</v>
+      </c>
+      <c r="I10">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J10">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.004286</v>
+      </c>
+      <c r="N10">
+        <v>0.012858</v>
+      </c>
+      <c r="O10">
+        <v>0.0004510078594555965</v>
+      </c>
+      <c r="P10">
+        <v>0.0004510078594555965</v>
+      </c>
+      <c r="Q10">
+        <v>0.002076864162666666</v>
+      </c>
+      <c r="R10">
+        <v>0.018691777464</v>
+      </c>
+      <c r="S10">
+        <v>0.0001819970773576795</v>
+      </c>
+      <c r="T10">
+        <v>0.0001819970773576795</v>
       </c>
     </row>
   </sheetData>
